--- a/input/rotenone_data/rotenone_concentration_results/excel/20211112_Vogel_Sample 2 Results.xlsx
+++ b/input/rotenone_data/rotenone_concentration_results/excel/20211112_Vogel_Sample 2 Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bmeyer\Documents\GitHub\Active GitHub Projects\KWF_Vogel_Lakes_Pike\Miller_Creek_Vogel_Lake_WQX\input\rotenone_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bmeyer\Documents\GitHub\Active GitHub Projects\KWF_Vogel_Lakes_Pike\Miller_Creek_Vogel_Lake_WQX\input\rotenone_data\rotenone_concentration_results\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -135,13 +135,13 @@
     <t>Detected</t>
   </si>
   <si>
-    <t>Miller Creek_a</t>
-  </si>
-  <si>
-    <t>Miller Creek_b</t>
-  </si>
-  <si>
     <t>25 ppb QC</t>
+  </si>
+  <si>
+    <t>Miller Creek Weir_a</t>
+  </si>
+  <si>
+    <t>Miller Creek Weir_b</t>
   </si>
 </sst>
 </file>
@@ -2093,7 +2093,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="3">
         <v>44510</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="3">
         <v>44510</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>28</v>
